--- a/data/income_statement/2digits/total/62_IS_TOTAL.xlsx
+++ b/data/income_statement/2digits/total/62_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>62-Computer programming, consultancy and related activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>62-Computer programming, consultancy and related activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,53 +841,63 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>5365923.205870001</v>
+        <v>5365923.20587</v>
       </c>
       <c r="D5" s="47" t="n">
         <v>6282259.94174</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>8102206.639949999</v>
+        <v>8102206.639950001</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>9550686.695780002</v>
+        <v>9551132.881750001</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>12620604.23947</v>
+        <v>12642233.86711</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>15089486.68061</v>
+        <v>15170057.65186</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>18388183.62551</v>
+        <v>19125118.18818</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>21187824.41809</v>
+        <v>22304434.51159</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>28720052.20302</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>36298631.42438</v>
+        <v>36359741.78307</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>45038651.54084001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>45503201.61197</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>62169972.457</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>4340027.12267</v>
@@ -995,76 +906,86 @@
         <v>5411501.34609</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>7125077.759029999</v>
+        <v>7125077.75903</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>8172747.173479999</v>
+        <v>8173193.359449998</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>11161347.02613</v>
+        <v>11172645.3499</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>13226674.84186</v>
+        <v>13285409.44519</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>16095475.00157</v>
+        <v>16647964.25663</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>18996406.5932</v>
+        <v>19813127.02975</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>25367171.10976</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>31525458.21439</v>
+        <v>31580180.29597</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>37791988.63827001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>38165419.72999</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>51760309.163</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>801495.71047</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>743682.15379</v>
+        <v>743682.1537900001</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>811270.4753699999</v>
+        <v>811270.47537</v>
       </c>
       <c r="F7" s="48" t="n">
         <v>1191289.11883</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>1270999.72926</v>
+        <v>1281032.63926</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>1651837.46385</v>
+        <v>1673190.64965</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>1992746.84401</v>
+        <v>2173693.57192</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>1878903.25963</v>
+        <v>2160165.74676</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>2950928.446109999</v>
+        <v>2950928.44611</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>4077307.41646</v>
+        <v>4081855.4764</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>6496760.62743</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>6574236.937399999</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>9260003.98</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>224400.37273</v>
@@ -1079,70 +1000,80 @@
         <v>186650.40347</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>188257.48408</v>
+        <v>188555.87795</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>210974.3749</v>
+        <v>211457.55702</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>299961.77993</v>
+        <v>303460.35963</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>312514.56526</v>
+        <v>331141.7350800001</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>401952.64715</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>695865.79353</v>
+        <v>697706.0107000001</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>749902.27514</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>763544.9445799999</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>1149659.314</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>56746.78708000001</v>
+        <v>56746.78707999999</v>
       </c>
       <c r="D9" s="47" t="n">
         <v>69882.22816999999</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>59531.85230000001</v>
+        <v>59531.8523</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>72514.75968</v>
+        <v>72519.32629</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>93728.86677000001</v>
+        <v>93740.73402</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>184151.34134</v>
+        <v>184665.67507</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>261475.38597</v>
+        <v>269944.97131</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>346287.1012499999</v>
+        <v>363401.14099</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>484729.12334</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>804941.8703300001</v>
+        <v>805478.02926</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>820794.9095399999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>824158.4392200001</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>1552975.914</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>44713.50881</v>
@@ -1154,34 +1085,39 @@
         <v>45052.62735</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>50076.79998</v>
+        <v>50081.36659000001</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>71971.4656</v>
+        <v>71981.93685</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>150234.91241</v>
+        <v>150612.80468</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>232700.69285</v>
+        <v>238149.34081</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>312751.64067</v>
+        <v>319969.85337</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>423529.03945</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>720148.18888</v>
+        <v>720684.02781</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>772097.13396</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>775392.43323</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>1382920.816</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>10360.82621</v>
@@ -1196,31 +1132,36 @@
         <v>19482.68774</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>19237.71131</v>
+        <v>19239.10731</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>29491.49204</v>
+        <v>29626.3335</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>24073.45238</v>
+        <v>26985.3334</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>25534.04436</v>
+        <v>35419.98051</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>45817.12076999999</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>74251.6496</v>
+        <v>74251.64959999999</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>37029.23301999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>37071.21137999999</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>147330.708</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>1672.45206</v>
@@ -1238,67 +1179,77 @@
         <v>2519.68986</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>4424.936890000001</v>
+        <v>4426.53689</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>4701.24074</v>
+        <v>4810.2971</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>8001.416220000001</v>
+        <v>8011.30711</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>15382.96312</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>10542.03185</v>
+        <v>10542.35185</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>11668.54256</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>11694.79461</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>22724.39</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>5309176.41879</v>
+        <v>5309176.418789999</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>6212377.71357</v>
+        <v>6212377.713570001</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>8042674.78765</v>
+        <v>8042674.787649999</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>9478171.936100001</v>
+        <v>9478613.55546</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>12526875.3727</v>
+        <v>12548493.13309</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>14905335.33927</v>
+        <v>14985391.97679</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>18126708.23954</v>
+        <v>18855173.21687</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>20841537.31684</v>
+        <v>21941033.3706</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>28235323.07968</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>35493689.55405001</v>
+        <v>35554263.75381</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>44217856.6313</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>44679043.17275</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>60616996.543</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>3300255.55836</v>
@@ -1310,34 +1261,39 @@
         <v>5299154.00015</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>6215282.740079999</v>
+        <v>6215564.87812</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>8262147.236789999</v>
+        <v>8273246.67182</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>9761843.038060002</v>
+        <v>9809182.534770001</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>11727923.29114</v>
+        <v>12232647.67937</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>14062027.3698</v>
+        <v>14512936.15184</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>18194359.61881</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>22568511.93604</v>
+        <v>22612221.31843</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>27378688.04411</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>27736678.15928</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>37746731.574</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>204927.15932</v>
@@ -1355,28 +1311,33 @@
         <v>171363.13307</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>196303.96063</v>
+        <v>197396.76932</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>213812.72407</v>
+        <v>218391.25984</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>248241.62585</v>
+        <v>249024.42646</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>434693.264</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>526874.29859</v>
+        <v>526951.2765200001</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>716301.6897900001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>718001.3633099999</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>1233905.929</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>1187643.76431</v>
@@ -1388,34 +1349,39 @@
         <v>2181427.57857</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>2380509.82911</v>
+        <v>2380672.92739</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>3524556.20412</v>
+        <v>3532305.54826</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>3829228.59943</v>
+        <v>3844772.19847</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>5063082.51577</v>
+        <v>5124659.37912</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>5957275.67741</v>
+        <v>6291421.63884</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>7776682.03208</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>9250915.85983</v>
+        <v>9272854.764040001</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>10331114.04329</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>10545787.91377</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>15365126.954</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>1826062.82123</v>
@@ -1427,40 +1393,45 @@
         <v>2872413.05075</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>3627364.07316</v>
+        <v>3627483.11292</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>4526917.36506</v>
+        <v>4530267.45595</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>5632445.605719999</v>
+        <v>5663148.694700001</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>6395488.53415</v>
+        <v>6833885.625510001</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>7777881.69275</v>
+        <v>7893819.629360001</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>9885964.23789</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>12601417.35405</v>
+        <v>12622789.61558</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>16100295.37826</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>16241443.54775</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>20909635.11</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>81621.8135</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>78417.52255999998</v>
+        <v>78417.52256</v>
       </c>
       <c r="E18" s="48" t="n">
         <v>66664.29059</v>
@@ -1469,31 +1440,36 @@
         <v>40051.79785</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>39310.53454</v>
+        <v>39310.53454000001</v>
       </c>
       <c r="H18" s="48" t="n">
         <v>103864.87228</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>55539.51715</v>
+        <v>55711.4149</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>78628.37379</v>
+        <v>78670.45718000001</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>97020.08484</v>
+        <v>97020.08484000001</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>189304.42357</v>
+        <v>189625.66229</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>230976.93277</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>231445.33445</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>238063.581</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>2008920.86043</v>
@@ -1505,34 +1481,39 @@
         <v>2743520.7875</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>3262889.196020001</v>
+        <v>3263048.67734</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>4264728.13591</v>
+        <v>4275246.46127</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>5143492.30121</v>
+        <v>5176209.442020001</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>6398784.948399999</v>
+        <v>6622525.5375</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>6779509.947039999</v>
+        <v>7428097.218760001</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>10040963.46087</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>12925177.61801</v>
+        <v>12942042.43538</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>16839168.58719</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>16942365.01347</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>22870264.969</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>1526728.44889</v>
@@ -1544,73 +1525,83 @@
         <v>2098496.15085</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>2585736.43317</v>
+        <v>2586205.05966</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>3237943.29146</v>
+        <v>3244074.27134</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>3834865.7854</v>
+        <v>3865156.29562</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>4664200.93447</v>
+        <v>4796389.95219</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>4995490.084919999</v>
+        <v>5571949.523549999</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>6707609.58767</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>8331424.656769998</v>
+        <v>8347686.89047</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>10996766.56963</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>11079823.96295</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>13128484.945</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>295788.73785</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>354837.3620000001</v>
+        <v>354837.362</v>
       </c>
       <c r="E21" s="48" t="n">
         <v>419040.40909</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>528386.38914</v>
+        <v>528627.72556</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>692962.3523199999</v>
+        <v>693406.65118</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>801428.5697699999</v>
+        <v>805534.7912000001</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>974609.16304</v>
+        <v>1001275.83924</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>1308844.28699</v>
+        <v>1367533.18837</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>1670124.00745</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>2270487.28081</v>
+        <v>2272145.15631</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>2976089.32533</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>2989252.0935</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>3941863.786</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>420249.02825</v>
@@ -1619,79 +1610,89 @@
         <v>467580.59666</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>566115.3033700001</v>
+        <v>566115.30337</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>689097.91109</v>
+        <v>689099.6455799999</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>900816.7816999999</v>
+        <v>901312.25693</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>1081615.873</v>
+        <v>1089245.74966</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>1210652.01298</v>
+        <v>1252171.74169</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>1129125.34</v>
+        <v>1388574.02934</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>1688050.19226</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>1884402.22761</v>
+        <v>1885737.75949</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>2776886.22455</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>2790473.92216</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>2797092.623</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>810690.68279</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>942642.7848100002</v>
+        <v>942642.7848100001</v>
       </c>
       <c r="E23" s="48" t="n">
         <v>1113340.43839</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>1368252.13294</v>
+        <v>1368477.68852</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>1644164.15744</v>
+        <v>1649355.36323</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>1951821.34263</v>
+        <v>1970375.75476</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>2478939.75845</v>
+        <v>2542942.37126</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>2557520.45793</v>
+        <v>2815842.30584</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>3349435.38796</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>4176535.14835</v>
+        <v>4189803.97467</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>5243791.01975</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>5300097.94729</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>6389528.536</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>482192.41154</v>
+        <v>482192.4115399999</v>
       </c>
       <c r="D24" s="47" t="n">
         <v>469096.50337</v>
@@ -1700,73 +1701,83 @@
         <v>645024.63665</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>677152.7628499999</v>
+        <v>676843.61768</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>1026784.84445</v>
+        <v>1031172.18993</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>1308626.51581</v>
+        <v>1311053.1464</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>1734584.01393</v>
+        <v>1826135.58531</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>1784019.86212</v>
+        <v>1856147.69521</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>3333353.8732</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>4593752.96124</v>
+        <v>4594355.54491</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>5842402.01756</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>5862541.05052</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>9741780.024</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>612081.1160299999</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>614011.1034400001</v>
+        <v>614011.10344</v>
       </c>
       <c r="E25" s="47" t="n">
         <v>893568.52903</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>728261.3361000001</v>
+        <v>728468.56619</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>988043.8510599999</v>
+        <v>988593.40848</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>1306258.56166</v>
+        <v>1309801.75211</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>2184001.27074</v>
+        <v>2346583.93348</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>2300080.3086</v>
+        <v>2359822.362</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>2701966.78074</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>6585611.30886</v>
+        <v>6586666.27991</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>4094333.51144</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>4119451.36161</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>8286129.237</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>14719.11018</v>
@@ -1784,10 +1795,10 @@
         <v>34463.32864</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>13988.31471</v>
+        <v>14103.62554</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>23206.12806</v>
+        <v>28947.56331</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>92279.79985</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>144451.2494</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>72675.99099999999</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>2649.29109</v>
@@ -1823,10 +1839,10 @@
         <v>22791.59769</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>50926.83059000001</v>
+        <v>50926.83059</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>236325.04933</v>
+        <v>240914.43709</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>23314.42015</v>
@@ -1838,52 +1854,62 @@
         <v>58616.0419</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>53900.71307999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>53900.71308</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>101555.242</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>63754.58599</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>61874.77994999999</v>
+        <v>61874.77995</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>65549.96081</v>
+        <v>65549.96080999999</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>75995.64972</v>
+        <v>76087.8772</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>77581.41023000001</v>
+        <v>77678.1001</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>130708.2028</v>
+        <v>131485.57451</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>129750.64116</v>
+        <v>152771.89561</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>169334.42303</v>
+        <v>182322.78338</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>262518.48406</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>457693.3955699999</v>
+        <v>457715.08854</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>576857.55189</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>580404.6664700001</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>603718.049</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>53997.12324</v>
@@ -1895,34 +1921,39 @@
         <v>54600.11512</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>65528.49883</v>
+        <v>65559.58451</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>92257.61979</v>
+        <v>92257.61979000001</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>79859.35223</v>
+        <v>79908.99192</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>71209.6553</v>
+        <v>71265.63158</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>121132.9473</v>
+        <v>121134.57226</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>77235.02214</v>
+        <v>77235.02213999999</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>80367.69241000002</v>
+        <v>80372.57140999999</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>158513.48033</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>158647.0217</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>147789.966</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>10103.47755</v>
@@ -1934,19 +1965,19 @@
         <v>12298.51813</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>21222.84834</v>
+        <v>21300.26527</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>17654.84953</v>
+        <v>17655.34672</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>46313.56836</v>
+        <v>46878.8926</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>31133.7284</v>
+        <v>31134.2995</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>54995.77166000001</v>
+        <v>57867.61755999999</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>28882.01884</v>
@@ -1955,13 +1986,18 @@
         <v>34873.09226</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>39728.16961</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>39808.56646</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>54051.264</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>39192.39573</v>
@@ -1973,34 +2009,39 @@
         <v>5186.71373</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>6615.46743</v>
+        <v>6615.467430000001</v>
       </c>
       <c r="G31" s="48" t="n">
         <v>5763.88275</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>8977.63147</v>
+        <v>9009.87709</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>18162.92514</v>
+        <v>18230.88905</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>13626.49017</v>
+        <v>13911.52183</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>71163.49582</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>82298.83954</v>
+        <v>82302.17897999998</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>58492.47043000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>58493.21818</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>144788.498</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>338039.3373300001</v>
@@ -2012,34 +2053,39 @@
         <v>563019.08137</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>284353.4542799999</v>
+        <v>284353.45428</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>514740.82904</v>
+        <v>515153.30172</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>721086.54055</v>
+        <v>722983.7477300001</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>1386651.96083</v>
+        <v>1513210.41448</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>1515772.64155</v>
+        <v>1556890.53857</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>1663501.98316</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>5248335.951350001</v>
+        <v>5249265.673389999</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>2468083.40291</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>2483125.12948</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>6525531.373</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>248.43517</v>
@@ -2060,10 +2106,10 @@
         <v>549.0932700000001</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>618.7588500000001</v>
+        <v>682.4398200000001</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>846.4874100000001</v>
+        <v>846.48741</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>1330.08668</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>5268.13634</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>20290.681</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>6.830859999999999</v>
@@ -2102,7 +2153,7 @@
         <v>111.10627</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>18.72078</v>
+        <v>32.88185</v>
       </c>
       <c r="K34" s="48" t="n">
         <v>626.59695</v>
@@ -2113,14 +2164,19 @@
       <c r="M34" s="48" t="n">
         <v>578.37014</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>242.847</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>89370.52889</v>
+        <v>89370.52889000002</v>
       </c>
       <c r="D35" s="48" t="n">
         <v>108134.80042</v>
@@ -2129,37 +2185,42 @@
         <v>153093.05397</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>227799.33727</v>
+        <v>227805.83727</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>221821.92016</v>
+        <v>221861.81784</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>253616.6433</v>
+        <v>253722.73448</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>286831.3174</v>
+        <v>289315.25677</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>308758.6067000001</v>
+        <v>311221.73914</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>418075.67191</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>538427.9165100001</v>
+        <v>538523.25411</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>588459.96731</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>594774.29036</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>615485.326</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>407819.88759</v>
+        <v>407819.8875900001</v>
       </c>
       <c r="D36" s="47" t="n">
         <v>403392.66737</v>
@@ -2168,73 +2229,83 @@
         <v>676449.20625</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>430466.0162800001</v>
+        <v>430637.7661600001</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>966927.8810699999</v>
+        <v>967124.0052799999</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>1037381.80718</v>
+        <v>1038135.10473</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>1953358.33515</v>
+        <v>2099267.13254</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>2112138.16475</v>
+        <v>2143338.52484</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>1913107.02984</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>5001408.44166</v>
+        <v>5002793.28567</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>2559853.95408</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>2570862.49043</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>6398304.687</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>4076.03332</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>4004.356659999999</v>
+        <v>4004.35666</v>
       </c>
       <c r="E37" s="48" t="n">
         <v>6413.230939999999</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>8954.23144</v>
+        <v>8954.231440000001</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>10550.85593</v>
+        <v>10552.38135</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>12287.42965</v>
+        <v>12292.77891</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>15072.69917</v>
+        <v>15773.3671</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>30122.34222</v>
+        <v>30122.4899</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>25457.79403</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>50979.64982999999</v>
+        <v>50982.24983</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>35980.31435</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>35937.82735</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>57944.092</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>17531.62054</v>
@@ -2252,28 +2323,33 @@
         <v>28278.61387</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>38289.11967</v>
+        <v>38299.11966999999</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>41402.06512000001</v>
+        <v>43155.69734</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>58990.53728</v>
+        <v>59035.81128</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>53294.55176</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>97843.97543999999</v>
+        <v>97897.97544000001</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>175286.09834</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>174924.90759</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>141468.239</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>3460.51937</v>
@@ -2294,10 +2370,10 @@
         <v>1014.27983</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>2168.0068</v>
+        <v>2168.05758</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>4945.9314</v>
+        <v>5689.458600000001</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>1237.2701</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>9322.61652</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>14048.498</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>334109.65369</v>
@@ -2321,37 +2402,42 @@
         <v>332917.22844</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>584315.6873</v>
+        <v>584315.6873000001</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>280136.07229</v>
+        <v>280307.8221699999</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>827596.29536</v>
+        <v>827790.8941499999</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>883997.1237100001</v>
+        <v>884734.8500300001</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>1776243.83941</v>
+        <v>1918677.66528</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>1926945.16557</v>
+        <v>1957340.68523</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>1735538.71408</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>4578109.82224</v>
+        <v>4579417.446640001</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>2002637.95706</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>2013950.34643</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>5896484.828</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>131.36597</v>
@@ -2360,7 +2446,7 @@
         <v>169.60967</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>468.1061999999999</v>
+        <v>468.1062</v>
       </c>
       <c r="F41" s="48" t="n">
         <v>360.53478</v>
@@ -2372,7 +2458,7 @@
         <v>295.18474</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>780.9269199999999</v>
+        <v>790.7045700000001</v>
       </c>
       <c r="J41" s="48" t="n">
         <v>692.27879</v>
@@ -2381,16 +2467,21 @@
         <v>564.86203</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>2475.39625</v>
+        <v>2475.4945</v>
       </c>
       <c r="M41" s="48" t="n">
         <v>1829.72019</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>1061.698</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>57.66003</v>
@@ -2408,10 +2499,10 @@
         <v>13.55409</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>0.4570799999999999</v>
+        <v>0.45708</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>169.37674</v>
+        <v>14.42788</v>
       </c>
       <c r="J42" s="48" t="n">
         <v>0.00259</v>
@@ -2425,14 +2516,19 @@
       <c r="M42" s="48" t="n">
         <v>82.97022</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>303.963</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>48453.03466999999</v>
+        <v>48453.03467</v>
       </c>
       <c r="D43" s="48" t="n">
         <v>49494.71812000001</v>
@@ -2447,28 +2543,33 @@
         <v>97781.43253999999</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>101498.2125</v>
+        <v>101498.43447</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>117521.42099</v>
+        <v>118687.21279</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>90441.9069</v>
+        <v>90457.79844999999</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>97013.81251999999</v>
+        <v>97013.81252000001</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>258961.39684</v>
+        <v>258981.9182</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>334714.2774</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>334814.10213</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>286993.369</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>129678.38348</v>
@@ -2477,37 +2578,42 @@
         <v>69951.4945</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>82306.87662000001</v>
+        <v>82306.87662</v>
       </c>
       <c r="F44" s="47" t="n">
         <v>68507.94847</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>137254.42957</v>
+        <v>137321.14046</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>235796.88236</v>
+        <v>236707.86164</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>326868.79255</v>
+        <v>331462.38381</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>383566.63876</v>
+        <v>384559.27524</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>456822.6355</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>442537.63096</v>
+        <v>442938.84983</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>773889.3851500001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>775889.36677</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>765229.86</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>122700.56816</v>
@@ -2522,34 +2628,39 @@
         <v>66197.40332</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>88347.00753</v>
+        <v>88413.71841999999</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>124396.72928</v>
+        <v>125307.23902</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>175138.00656</v>
+        <v>179608.19993</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>193668.89821</v>
+        <v>194661.53469</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>300989.79401</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>429407.9367</v>
+        <v>429797.32821</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>764060.33125</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>765776.3425599999</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>755817.481</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>6977.815320000001</v>
+        <v>6977.81532</v>
       </c>
       <c r="D46" s="48" t="n">
         <v>5922.430520000001</v>
@@ -2564,10 +2675,10 @@
         <v>48907.42204</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>111400.15308</v>
+        <v>111400.62262</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>151730.78599</v>
+        <v>151854.18388</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>189897.74055</v>
@@ -2576,16 +2687,21 @@
         <v>155832.84149</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>13129.69426</v>
+        <v>13141.52162</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>9829.053900000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>10113.02421</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>9412.379000000001</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>556775.2565</v>
@@ -2597,76 +2713,86 @@
         <v>779837.0828099999</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>906440.1342</v>
+        <v>906166.46924</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>910646.3848700001</v>
+        <v>915320.4526699999</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>1341706.38793</v>
+        <v>1346011.93214</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>1638358.15697</v>
+        <v>1741990.00244</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>1588395.36721</v>
+        <v>1688072.25713</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>3665390.9886</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>5735418.197480001</v>
+        <v>5735289.68932</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>6602992.18977</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>6635240.554930001</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>10864374.714</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>53160.75442</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>63885.51182</v>
+        <v>63885.51182000001</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>61316.42006999999</v>
+        <v>61316.42007000001</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>240808.82405</v>
+        <v>240886.80189</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>197782.97421</v>
+        <v>197837.44182</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>93568.34067000001</v>
+        <v>93961.40491</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>129358.78641</v>
+        <v>131977.45285</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>156502.93985</v>
+        <v>160266.26501</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>179500.68668</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>247351.20231</v>
+        <v>247543.59925</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>343341.2266400001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>343014.8481800001</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>448885.437</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>3992.962559999999</v>
+        <v>3992.96256</v>
       </c>
       <c r="D49" s="48" t="n">
         <v>21538.35086</v>
@@ -2678,70 +2804,80 @@
         <v>3507.49359</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>8054.890899999999</v>
+        <v>8054.8909</v>
       </c>
       <c r="H49" s="48" t="n">
         <v>8720.329870000001</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>3527.44815</v>
+        <v>3528.21699</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>8617.501910000001</v>
+        <v>8649.188910000001</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>10890.62624</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>8615.379789999999</v>
+        <v>8615.647639999999</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>22160.159</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>22946.86759</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>8708.948</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>49167.79186</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>42347.16096</v>
+        <v>42347.16095999999</v>
       </c>
       <c r="E50" s="48" t="n">
         <v>59692.33985</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>237301.33046</v>
+        <v>237379.3083</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>189728.08331</v>
+        <v>189782.55092</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>84848.0108</v>
+        <v>85241.07504</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>125831.33826</v>
+        <v>128449.23586</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>147885.43794</v>
+        <v>151617.0761</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>168610.06044</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>238735.82252</v>
+        <v>238927.95161</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>321181.06764</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>320067.9805900001</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>440176.489</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>174242.43822</v>
@@ -2750,37 +2886,42 @@
         <v>77078.77184</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>586401.0072999999</v>
+        <v>586401.0073000001</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>108789.87835</v>
+        <v>108793.63612</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>71149.47184</v>
+        <v>71165.08774</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>318641.26823</v>
+        <v>320679.36864</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>99548.06459000001</v>
+        <v>105626.35936</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>565190.8543699998</v>
+        <v>567906.98963</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>194612.20743</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>752951.49315</v>
+        <v>754004.98315</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>290243.39314</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>308370.17958</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>433284.874</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>830.38413</v>
@@ -2810,16 +2951,21 @@
         <v>691.53036</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>2806.86962</v>
+        <v>2807.24758</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>8316.76197</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>8318.901089999999</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>2812.454</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>47027.73230999999</v>
@@ -2837,28 +2983,33 @@
         <v>13234.80506</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>14707.95557</v>
+        <v>14708.38217</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>9781.15065</v>
+        <v>10054.0856</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>26066.71707</v>
+        <v>26678.19822</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>18961.28005</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>26324.08094</v>
+        <v>26325.86303</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>22606.62754</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>28929.12154</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>45500.066</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>126384.32178</v>
@@ -2870,34 +3021,39 @@
         <v>407608.41992</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>99221.53739</v>
+        <v>99225.29515999999</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>57560.29615</v>
+        <v>57575.91205</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>302972.19182</v>
+        <v>305009.86563</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>84920.76564000001</v>
+        <v>90726.12546000001</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>538171.80263</v>
+        <v>540276.4567400001</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>174959.39702</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>723820.5425900001</v>
+        <v>724871.87254</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>259320.00363</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>271122.15695</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>384972.354</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>435693.5727</v>
@@ -2909,40 +3065,45 @@
         <v>254752.49558</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>1038459.0799</v>
+        <v>1038259.63501</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>1037279.88724</v>
+        <v>1041992.80675</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>1116633.46037</v>
+        <v>1119293.96841</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>1668168.87879</v>
+        <v>1768341.09593</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>1179707.45269</v>
+        <v>1280431.53251</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>3650279.467850001</v>
+        <v>3650279.46785</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>5229817.90664</v>
+        <v>5228828.30542</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>6656090.02327</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>6669885.223530001</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>10879975.277</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>70782.81336</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>79577.82904</v>
+        <v>79577.82904000001</v>
       </c>
       <c r="E56" s="47" t="n">
         <v>100314.15712</v>
@@ -2951,31 +3112,36 @@
         <v>113308.83936</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>167100.14512</v>
+        <v>167836.88155</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>194330.08813</v>
+        <v>195272.64295</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>251633.086</v>
+        <v>259822.15729</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>259214.09014</v>
+        <v>278132.03434</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>464609.77458</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>699868.7531699999</v>
+        <v>701110.50498</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>754654.80026</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>768566.5056800001</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>1124801.238</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>364910.75934</v>
@@ -2987,31 +3153,34 @@
         <v>154438.33846</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>925150.24054</v>
+        <v>924950.79565</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>870179.74212</v>
+        <v>874155.9251999999</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>922303.3722400001</v>
+        <v>924021.3254600001</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>1416535.79279</v>
+        <v>1508518.93864</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>920493.3625500001</v>
+        <v>1002299.49817</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>3185669.69327</v>
+        <v>3185669.693270001</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>4529949.15347</v>
+        <v>4527717.80044</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>5901435.22301</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>5901318.717850001</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>9755174.039000001</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>4510</v>
@@ -3041,31 +3213,34 @@
         <v>5631</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>6101</v>
+        <v>6103</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>6998</v>
+        <v>7014</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>7784</v>
+        <v>7815</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>8595</v>
+        <v>8687</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>9634</v>
+        <v>9723</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>10867</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>11814</v>
+        <v>12292</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>13003</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>14031</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>16333</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>